--- a/data/raw/comptages_terrain/activites_loisirs/us_med_pnmcca_observatoire_comptage_terrain_activites_loisirs_2022-09-12.xlsx
+++ b/data/raw/comptages_terrain/activites_loisirs/us_med_pnmcca_observatoire_comptage_terrain_activites_loisirs_2022-09-12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12180" activeTab="4"/>
+    <workbookView windowWidth="18345" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_comptages" sheetId="5" r:id="rId1"/>
@@ -126,7 +126,7 @@
     <t>1 kayak attaché sur un bateau + 1 sur la plage</t>
   </si>
   <si>
-    <t>1 SEABOB</t>
+    <t>Autre : SEABOB</t>
   </si>
 </sst>
 </file>
@@ -2325,8 +2325,8 @@
   <sheetPr/>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:Q2"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="26.25"/>
@@ -2503,8 +2503,8 @@
       <c r="J4" s="11">
         <v>0</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>31</v>
+      <c r="K4" s="11">
+        <v>1</v>
       </c>
       <c r="L4" s="11">
         <v>0</v>
@@ -2521,7 +2521,9 @@
       <c r="P4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" s="28" customFormat="1" ht="69.75" customHeight="1" spans="1:17">
       <c r="A5" s="10">
@@ -2678,8 +2680,8 @@
   <sheetPr/>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:Q2"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
